--- a/src/main/resources/TestData/TestData.xlsx
+++ b/src/main/resources/TestData/TestData.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hristo.tentchev.OFFICE-SF\Desktop\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivie\git\DieticianAPI\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2CFBAA-F76A-4EF1-911D-FEDE3910E57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>password</t>
   </si>
@@ -84,16 +87,19 @@
   </si>
   <si>
     <t>1985-05-01</t>
+  </si>
+  <si>
+    <t>Glory99</t>
+  </si>
+  <si>
+    <t>vivienobitulata.ugwu@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,37 +108,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
-      <u val="single"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="10"/>
-      <u val="single"/>
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <color theme="1"/>
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <color theme="1"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="10"/>
-      <u val="single"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,87 +166,54 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
-      <alignment vertical="bottom"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{939E5D68-273C-4374-B2B5-8E4F15964BD4}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{1EB5114A-06FE-4928-8F67-E38DBEBA1E52}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,19 +524,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -570,7 +552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -578,157 +560,288 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="mailsudhamaha@gmail.com" r:id="rId1"/>
-    <hyperlink ref="B3" display="pranithareddy83@gmail.com" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{C152D947-D365-43DE-9FC9-F6A6B29EC209}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1:G2"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.140625"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1" style="4"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" style="4"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" style="4"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1" style="4"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" style="4"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1" bestFit="1" style="4"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="3"/>
+    <col min="6" max="6" width="19.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="1" s="4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2482482481</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" display="johm.kim@gmail.com" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="1" max="7" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" display="johm.kim@gmail.com" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1E37C3-BDD4-44B1-82B2-F9E110777337}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B873017-CCB9-4350-905F-FD60205420D6}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/TestData/TestData.xlsx
+++ b/src/main/resources/TestData/TestData.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hristo.tentchev.OFFICE-SF\Desktop\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yours\git\DieticianAPI\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A46DBB-3CD9-4714-A148-8E3A160242EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="225" windowWidth="15600" windowHeight="15255" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="S-Negative" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>password</t>
   </si>
@@ -84,14 +89,56 @@
   </si>
   <si>
     <t>1985-05-01</t>
+  </si>
+  <si>
+    <t>Kimy</t>
+  </si>
+  <si>
+    <t>2909909924</t>
+  </si>
+  <si>
+    <t>johm.kimy@gmail.com</t>
+  </si>
+  <si>
+    <t>1985-05-11</t>
+  </si>
+  <si>
+    <t>3456789128</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Alex.kim@gmail.com</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>julia.smith@gmail.com</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>a.bob@gmail.com</t>
+  </si>
+  <si>
+    <t>Walnut</t>
+  </si>
+  <si>
+    <t>NonVeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -102,36 +149,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
-      <u val="single"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="10"/>
-      <u val="single"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <color theme="10"/>
-      <u val="single"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -151,84 +198,42 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
-      <alignment vertical="bottom"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,19 +547,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -570,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -580,156 +585,413 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="mailsudhamaha@gmail.com" r:id="rId1"/>
-    <hyperlink ref="B3" display="pranithareddy83@gmail.com" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1:G2"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.140625"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1" style="4"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" style="4"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" style="4"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1" style="4"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" style="4"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1" bestFit="1" style="4"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="19.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="1" s="4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2482482481</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" display="johm.kim@gmail.com" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="1" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" display="johm.kim@gmail.com" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="johm.kim@gmail.com" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590DEFB5-1B54-45BD-B92B-1BA3F63F1929}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="8">
+        <v>9078564321</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="9">
+        <v>31970</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74B6FF6-2156-4A19-AE5F-89F9475F9001}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8">
+        <v>7892456540</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="9">
+        <v>30418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/TestData/TestData.xlsx
+++ b/src/main/resources/TestData/TestData.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hristo.tentchev.OFFICE-SF\Desktop\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senth\git\DieticianAPI\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4467B50F-06FC-40A5-96A4-6E5DC7FC8699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
+    <sheet name="S-Negative" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
   <si>
     <t>password</t>
   </si>
@@ -84,16 +90,70 @@
   </si>
   <si>
     <t>1985-05-01</t>
+  </si>
+  <si>
+    <t>Kimy</t>
+  </si>
+  <si>
+    <t>2909909924</t>
+  </si>
+  <si>
+    <t>johm.kimy@gmail.com</t>
+  </si>
+  <si>
+    <t>1985-05-11</t>
+  </si>
+  <si>
+    <t>3456789128</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Alex.kim@gmail.com</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>julia.smith@gmail.com</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>a.bob@gmail.com</t>
+  </si>
+  <si>
+    <t>Walnut</t>
+  </si>
+  <si>
+    <t>NonVeg</t>
+  </si>
+  <si>
+    <t>Santa</t>
+  </si>
+  <si>
+    <t>claus</t>
+  </si>
+  <si>
+    <t>santaclaus@gmail.com</t>
+  </si>
+  <si>
+    <t>9048564000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,37 +162,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
-      <u val="single"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="10"/>
-      <u val="single"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <color theme="1"/>
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <color theme="10"/>
-      <u val="single"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,86 +219,47 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
-      <alignment vertical="bottom"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,19 +571,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -570,7 +599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -580,156 +609,487 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="mailsudhamaha@gmail.com" r:id="rId1"/>
-    <hyperlink ref="B3" display="pranithareddy83@gmail.com" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1:G2"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.140625"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1" style="4"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" style="4"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" style="4"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1" style="4"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" style="4"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1" bestFit="1" style="4"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="19.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="1" s="4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2482482481</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" display="johm.kim@gmail.com" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="1" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" display="johm.kim@gmail.com" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="johm.kim@gmail.com" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590DEFB5-1B54-45BD-B92B-1BA3F63F1929}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="8">
+        <v>9078564321</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="9">
+        <v>31970</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A2CCD6-D363-49EE-ADD7-ADD2505C6C72}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="9">
+        <v>33232</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{691876BB-23F1-428F-9D64-41727EB2F74A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74B6FF6-2156-4A19-AE5F-89F9475F9001}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8">
+        <v>7892456540</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="9">
+        <v>30418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/TestData/TestData.xlsx
+++ b/src/main/resources/TestData/TestData.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hristo.tentchev.OFFICE-SF\Desktop\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptang\git\DieticianAPI\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4EC5A2-F03E-4EE0-BA2A-48B1DD28B943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="PriteeUpt" sheetId="2" r:id="rId2"/>
+    <sheet name="Sudha" sheetId="3" r:id="rId3"/>
+    <sheet name="Pritee" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="S-Negative" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>password</t>
   </si>
@@ -77,19 +82,67 @@
     <t>Vegan</t>
   </si>
   <si>
-    <t>1989-02-02</t>
-  </si>
-  <si>
-    <t>2909909909</t>
-  </si>
-  <si>
     <t>1985-05-01</t>
+  </si>
+  <si>
+    <t>Kimy</t>
+  </si>
+  <si>
+    <t>2909909924</t>
+  </si>
+  <si>
+    <t>johm.kimy@gmail.com</t>
+  </si>
+  <si>
+    <t>1985-05-11</t>
+  </si>
+  <si>
+    <t>3456789128</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Alex.kim@gmail.com</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>julia.smith@gmail.com</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>a.bob@gmail.com</t>
+  </si>
+  <si>
+    <t>Walnut</t>
+  </si>
+  <si>
+    <t>NonVeg</t>
+  </si>
+  <si>
+    <t>2001-01-01</t>
+  </si>
+  <si>
+    <t>2912349909</t>
+  </si>
+  <si>
+    <t>2005-06-06</t>
+  </si>
+  <si>
+    <t>8736345566</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -102,36 +155,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
-      <u val="single"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="10"/>
-      <u val="single"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <color theme="10"/>
-      <u val="single"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -151,84 +204,42 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
-      <alignment vertical="bottom"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,19 +553,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -570,7 +581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -580,156 +591,416 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="mailsudhamaha@gmail.com" r:id="rId1"/>
-    <hyperlink ref="B3" display="pranithareddy83@gmail.com" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.140625"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1" style="4"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" style="4"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" style="4"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1" style="4"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" style="4"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1" bestFit="1" style="4"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="3"/>
+    <col min="6" max="6" width="19.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="1" s="4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4">
-        <v>2482482481</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>18</v>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" display="johm.kim@gmail.com" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="1" max="7" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" display="johm.kim@gmail.com" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="johm.kim@gmail.com" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590DEFB5-1B54-45BD-B92B-1BA3F63F1929}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8">
+        <v>9078564321</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="9">
+        <v>31970</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74B6FF6-2156-4A19-AE5F-89F9475F9001}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="5" width="20.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="8">
+        <v>7892456540</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="9">
+        <v>30418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/TestData/TestData.xlsx
+++ b/src/main/resources/TestData/TestData.xlsx
@@ -10,23 +10,25 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A46DBB-3CD9-4714-A148-8E3A160242EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="225" windowWidth="15600" windowHeight="15255" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="225" windowWidth="15600" windowHeight="15255" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Vivien" sheetId="1" r:id="rId1"/>
+    <sheet name="Resh" sheetId="2" r:id="rId2"/>
+    <sheet name="Sudha" sheetId="3" r:id="rId3"/>
+    <sheet name="Pritee" sheetId="4" r:id="rId4"/>
+    <sheet name="PriteeUpt" sheetId="9" r:id="rId11"/>
+    <sheet name="Pranita" sheetId="5" r:id="rId5"/>
+    <sheet name="Raghavy" sheetId="8" r:id="rId12"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="S-Negative" sheetId="7" r:id="rId7"/>
+    <sheet name="S-Neg" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>password</t>
   </si>
@@ -131,6 +133,72 @@
   </si>
   <si>
     <t>NonVeg</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>2482484444</t>
+  </si>
+  <si>
+    <t>1989-02-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Sour</t>
+  </si>
+  <si>
+    <t>2909924565</t>
+  </si>
+  <si>
+    <t>David.Sour@gmail.com</t>
+  </si>
+  <si>
+    <t>1985-05-04</t>
+  </si>
+  <si>
+    <t>2909909567</t>
+  </si>
+  <si>
+    <t>1985-05-12</t>
+  </si>
+  <si>
+    <t>2482484576</t>
+  </si>
+  <si>
+    <t>1989-02-25</t>
+  </si>
+  <si>
+    <t>2482434567</t>
+  </si>
+  <si>
+    <t>1989-02-05</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>2909967891</t>
+  </si>
+  <si>
+    <t>1985-07-01</t>
+  </si>
+  <si>
+    <t>Raks</t>
+  </si>
+  <si>
+    <t>2345635463</t>
+  </si>
+  <si>
+    <t>1989-10-12</t>
   </si>
 </sst>
 </file>
@@ -140,7 +208,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +247,12 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -223,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -234,6 +308,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,42 +626,66 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G2" sqref="G2" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -597,10 +696,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection sqref="G2" activeCell="G2" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="3" customWidth="1"/>
@@ -612,7 +711,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -635,15 +734,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3">
-        <v>2482482481</v>
+      <c r="C2" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -655,7 +754,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -671,15 +770,21 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -702,7 +807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -710,7 +815,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -722,7 +827,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -738,12 +843,16 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection sqref="C2" activeCell="C2" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -766,15 +875,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -786,7 +895,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -802,12 +911,12 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G16" sqref="G16" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -831,7 +940,7 @@
       </c>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
@@ -871,7 +980,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
@@ -880,7 +989,7 @@
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -903,7 +1012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
@@ -935,20 +1044,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74B6FF6-2156-4A19-AE5F-89F9475F9001}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="5" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="1" s="8">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -971,12 +1082,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="1" s="8">
       <c r="B2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="8">
-        <v>7892456540</v>
+      <c r="C2" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>32</v>
@@ -994,4 +1105,133 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" activeCellId="0" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" display="David.Sour@gmail.com" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/TestData/TestData.xlsx
+++ b/src/main/resources/TestData/TestData.xlsx
@@ -8,45 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yours\git\DieticianAPI\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A46DBB-3CD9-4714-A148-8E3A160242EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B362C4-AC61-460D-8169-90CD237738CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="225" windowWidth="15600" windowHeight="15255" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="4"/>
+    <workbookView xWindow="390" yWindow="225" windowWidth="15600" windowHeight="15255" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vivien" sheetId="1" r:id="rId1"/>
     <sheet name="Resh" sheetId="2" r:id="rId2"/>
     <sheet name="Sudha" sheetId="3" r:id="rId3"/>
     <sheet name="Pritee" sheetId="4" r:id="rId4"/>
-    <sheet name="PriteeUpt" sheetId="9" r:id="rId11"/>
-    <sheet name="Pranita" sheetId="5" r:id="rId5"/>
-    <sheet name="Raghavy" sheetId="8" r:id="rId12"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="S-Neg" sheetId="7" r:id="rId7"/>
+    <sheet name="PriteeUpt" sheetId="9" r:id="rId5"/>
+    <sheet name="Pranita" sheetId="5" r:id="rId6"/>
+    <sheet name="Raghavy" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
+    <sheet name="S-Neg" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>userLoginEmail</t>
-  </si>
-  <si>
-    <t>Brave39</t>
-  </si>
-  <si>
-    <t>mailsudhamaha@gmail.com</t>
-  </si>
-  <si>
-    <t>Bloom20</t>
-  </si>
-  <si>
-    <t>pranithareddy83@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
   <si>
     <t>FirstName</t>
   </si>
@@ -84,27 +66,15 @@
     <t>Vegan</t>
   </si>
   <si>
-    <t>1989-02-02</t>
-  </si>
-  <si>
-    <t>2909909909</t>
-  </si>
-  <si>
     <t>1985-05-01</t>
   </si>
   <si>
     <t>Kimy</t>
   </si>
   <si>
-    <t>2909909924</t>
-  </si>
-  <si>
     <t>johm.kimy@gmail.com</t>
   </si>
   <si>
-    <t>1985-05-11</t>
-  </si>
-  <si>
     <t>3456789128</t>
   </si>
   <si>
@@ -138,13 +108,7 @@
     <t>Victor</t>
   </si>
   <si>
-    <t>2482484444</t>
-  </si>
-  <si>
-    <t>1989-02-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
+    <t/>
   </si>
   <si>
     <t>David</t>
@@ -172,12 +136,6 @@
   </si>
   <si>
     <t>1989-02-25</t>
-  </si>
-  <si>
-    <t>2482434567</t>
-  </si>
-  <si>
-    <t>1989-02-05</t>
   </si>
   <si>
     <t>Paul</t>
@@ -206,22 +164,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -249,12 +200,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <color rgb="FF000000"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -264,14 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -297,18 +235,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,14 +557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF703383-1604-466F-AE5B-D74BDA13A6A9}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2" activeCellId="0"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
@@ -637,124 +572,124 @@
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3E2179-3BBE-4CF4-AEED-1EE1F45FC213}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="G2" activeCell="G2" activeCellId="0"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="19.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>56</v>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -766,68 +701,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894AFD62-FD1C-4F6B-B8FD-98979EE6CB81}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2" activeCellId="0"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="1" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>45</v>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -839,63 +768,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7745896A-64B4-4A6F-8EC4-B957D74A50CB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="C2" activeCell="C2" activeCellId="0"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>53</v>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -907,62 +836,126 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E4F216-519C-4DAF-919D-FBF4D3B05EA2}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F996E7F-A176-456F-9E0C-B41B89F9C50A}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16" activeCellId="0"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -972,15 +965,82 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590DEFB5-1B54-45BD-B92B-1BA3F63F1929}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B434FC39-7467-43C7-8574-4EBC500AAA78}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48385EEA-49EE-4ABF-BCE6-2C6585F61630}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
@@ -989,49 +1049,49 @@
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6">
+        <v>9078564321</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="8">
-        <v>9078564321</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>31970</v>
       </c>
     </row>
@@ -1040,198 +1100,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74B6FF6-2156-4A19-AE5F-89F9475F9001}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BA1D09-CD8F-4B51-9829-BD6DCC5424FB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="4" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="8">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" s="8">
-      <c r="B2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="9">
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="7">
         <v>30418</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="F2" activeCellId="0" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" activeCellId="0" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" display="David.Sour@gmail.com" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>